--- a/data/form_邮箱注册.xlsx
+++ b/data/form_邮箱注册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9540"/>
+    <workbookView windowWidth="20490" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>邮箱地址</t>
   </si>
@@ -35,16 +35,22 @@
   <si>
     <t>注册审批（同意or不同意）</t>
   </si>
+  <si>
+    <t>songzongquan@bonc.com.cn</t>
+  </si>
+  <si>
+    <t>宋宗权</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -72,88 +78,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,7 +131,61 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,25 +199,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,187 +228,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,52 +437,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,6 +470,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -528,153 +519,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -688,69 +694,69 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1051,16 +1057,16 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="26.8888888888889" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.8916666666667" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5555555555556" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.8888888888889" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8916666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5583333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.8916666666667" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1083,17 +1089,24 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:6">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="songzongquan@bonc.com.cn"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1109,7 +1122,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1126,7 +1139,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/form_邮箱注册.xlsx
+++ b/data/form_邮箱注册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8250"/>
+    <workbookView windowWidth="23040" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,30 +16,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>邮箱地址</t>
+    <t>邮箱注册v1.0</t>
   </si>
   <si>
     <t>姓名</t>
   </si>
   <si>
-    <t>工号</t>
-  </si>
-  <si>
-    <t>手机号</t>
+    <t>邮箱地址</t>
   </si>
   <si>
     <t>部门名称</t>
   </si>
   <si>
-    <t>注册审批（同意or不同意）</t>
+    <t>工号</t>
   </si>
   <si>
-    <t>songzongquan@bonc.com.cn</t>
+    <t>联系电话</t>
   </si>
   <si>
-    <t>宋宗权</t>
+    <t>注册申请日期</t>
+  </si>
+  <si>
+    <t>运维负责人审批
+（签字）</t>
+  </si>
+  <si>
+    <t>审批意见</t>
+  </si>
+  <si>
+    <t>审批时间</t>
   </si>
 </sst>
 </file>
@@ -47,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -61,61 +68,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,47 +161,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,37 +198,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,7 +229,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,31 +373,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,7 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,145 +413,35 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -433,24 +456,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,17 +475,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,7 +514,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,17 +549,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,224 +562,239 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1053,62 +1091,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="26.8916666666667" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8916666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5583333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.8916666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.8888888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.1111111111111" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.4444444444444" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.6666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.8888888888889" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="14" customHeight="1" spans="1:6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" ht="95" customHeight="1" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" ht="51" customHeight="1" spans="1:6">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" ht="51" customHeight="1" spans="1:6">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" ht="28" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" ht="51" customHeight="1" spans="1:6">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
+      <formula1>"同意,不同意"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="songzongquan@bonc.com.cn"/>
+    <hyperlink ref="D3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1122,7 +1198,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1139,7 +1215,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
